--- a/data/HR1/Location1/Location1_2020.xlsx
+++ b/data/HR1/Location1/Location1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0620CA-C7C3-4447-BE28-B51D2325BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53034702-AF6A-4C02-AD06-B3EC02DC194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <externalReferences>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,8 +129,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Pc, 2020, Summer"/>
@@ -143,7 +146,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="4">
@@ -9317,7 +9320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -21989,7 +21992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4A73BE-8EFB-4A69-A4E9-2E4A8FF2A98C}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1/Location1/Location1_2020.xlsx
+++ b/data/HR1/Location1/Location1_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53034702-AF6A-4C02-AD06-B3EC02DC194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD823A4-E9D3-4528-AE3F-007169F294F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9321,7 +9321,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -9360,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -9380,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -22081,99 +22081,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2</v>
+        <v>2.8800000000000003</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30000000000000004</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -22182,99 +22182,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.2</v>
+        <v>17.28</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.8</v>
+        <v>16.02</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.399999999999999</v>
+        <v>15.659999999999998</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.8</v>
+        <v>16.02</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.7</v>
+        <v>15.93</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.5</v>
+        <v>15.75</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.4</v>
+        <v>21.96</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.7</v>
+        <v>24.03</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.6</v>
+        <v>23.040000000000003</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.4</v>
+        <v>23.759999999999998</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.3</v>
+        <v>24.57</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.9</v>
+        <v>24.21</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.4</v>
+        <v>24.66</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.6</v>
+        <v>22.14</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.3</v>
+        <v>22.77</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.8</v>
+        <v>22.32</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.4</v>
+        <v>22.86</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.3</v>
+        <v>22.77</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.7</v>
+        <v>24.03</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.3</v>
+        <v>21.87</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.2</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -22283,99 +22283,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.1</v>
+        <v>23.490000000000002</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.9</v>
+        <v>23.31</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.8</v>
+        <v>21.42</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.1</v>
+        <v>22.590000000000003</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.7</v>
+        <v>20.43</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.200000000000003</v>
+        <v>22.680000000000003</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.200000000000003</v>
+        <v>28.080000000000002</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37</v>
+        <v>33.300000000000004</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.5</v>
+        <v>34.65</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.9</v>
+        <v>32.31</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.9</v>
+        <v>34.11</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.299999999999997</v>
+        <v>33.57</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.1</v>
+        <v>34.29</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.299999999999997</v>
+        <v>33.57</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.4</v>
+        <v>30.06</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.6</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.700000000000003</v>
+        <v>30.330000000000002</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.1</v>
+        <v>31.590000000000003</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.200000000000003</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.299999999999997</v>
+        <v>30.869999999999997</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.9</v>
+        <v>27.81</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.9</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -22384,99 +22384,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.9</v>
+        <v>35.01</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.299999999999997</v>
+        <v>30.869999999999997</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.9</v>
+        <v>28.71</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.2</v>
+        <v>28.08</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.9</v>
+        <v>28.71</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.599999999999998</v>
+        <v>26.639999999999997</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.4</v>
+        <v>31.86</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>43</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>47.8</v>
+        <v>43.019999999999996</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.9</v>
+        <v>44.91</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>53.7</v>
+        <v>48.330000000000005</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.8</v>
+        <v>50.22</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55</v>
+        <v>49.5</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.6</v>
+        <v>50.940000000000005</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.6</v>
+        <v>47.34</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>53.300000000000004</v>
+        <v>47.970000000000006</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>51.5</v>
+        <v>46.35</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.699999999999996</v>
+        <v>47.43</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.7</v>
+        <v>44.730000000000004</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.5</v>
+        <v>44.550000000000004</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.400000000000006</v>
+        <v>44.460000000000008</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.7</v>
+        <v>47.430000000000007</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.5</v>
+        <v>47.25</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>45.400000000000006</v>
+        <v>40.860000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -22485,99 +22485,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4000000000000004</v>
+        <v>1.2600000000000005</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9000000000000004</v>
+        <v>1.7100000000000004</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5999999999999996</v>
+        <v>1.4399999999999997</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40000000000000036</v>
+        <v>0.36000000000000032</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69999999999999929</v>
+        <v>0.62999999999999934</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6999999999999993</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1999999999999993</v>
+        <v>7.38</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.3</v>
+        <v>9.2700000000000014</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.899999999999999</v>
+        <v>11.61</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.399999999999999</v>
+        <v>11.159999999999998</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.899999999999999</v>
+        <v>11.61</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.3</v>
+        <v>11.07</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.7</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.399999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.199999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8999999999999986</v>
+        <v>8.9099999999999984</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6999999999999993</v>
+        <v>8.73</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.399999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.7</v>
+        <v>11.43</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.399999999999999</v>
+        <v>12.059999999999999</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3000000000000007</v>
+        <v>8.370000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -22687,99 +22687,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.9</v>
+        <v>37.71</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.6</v>
+        <v>50.04</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>68.8</v>
+        <v>61.92</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.2</v>
+        <v>53.28</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.8</v>
+        <v>49.32</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>42.9</v>
+        <v>38.61</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.4</v>
+        <v>22.86</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6000000000000014</v>
+        <v>8.6400000000000023</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6999999999999993</v>
+        <v>4.2299999999999995</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.7999999999999989</v>
+        <v>-5.2199999999999989</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.6999999999999993</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.100000000000001</v>
+        <v>-10.890000000000002</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-14.9</v>
+        <v>-13.41</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-18.899999999999999</v>
+        <v>-17.009999999999998</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.9</v>
+        <v>-8.01</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3000000000000007</v>
+        <v>-1.1700000000000006</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7999999999999989</v>
+        <v>6.1199999999999992</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1999999999999993</v>
+        <v>7.38</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.799999999999997</v>
+        <v>17.819999999999997</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.2</v>
+        <v>18.18</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.9</v>
+        <v>12.51</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3000000000000007</v>
+        <v>5.6700000000000008</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.3</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -22788,99 +22788,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.9</v>
+        <v>25.11</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.4</v>
+        <v>24.66</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.1</v>
+        <v>22.590000000000003</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.9</v>
+        <v>22.41</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.6</v>
+        <v>22.14</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.6</v>
+        <v>23.040000000000003</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.8</v>
+        <v>23.220000000000002</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28</v>
+        <v>25.2</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.3</v>
+        <v>26.37</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.2</v>
+        <v>26.28</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.2</v>
+        <v>25.38</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.2</v>
+        <v>24.48</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.4</v>
+        <v>22.86</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.7</v>
+        <v>23.13</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.7</v>
+        <v>21.33</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.2</v>
+        <v>21.78</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.7</v>
+        <v>23.13</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.4</v>
+        <v>25.56</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32</v>
+        <v>28.8</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.4</v>
+        <v>25.56</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.7</v>
+        <v>26.73</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.5</v>
+        <v>25.650000000000002</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.6</v>
+        <v>20.340000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -22889,99 +22889,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>105</v>
+        <v>94.5</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>88</v>
+        <v>79.2</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>75</v>
+        <v>67.5</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>72</v>
+        <v>64.8</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>72</v>
+        <v>64.8</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>85</v>
+        <v>76.5</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>119</v>
+        <v>107.10000000000001</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>132</v>
+        <v>118.8</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>159</v>
+        <v>143.1</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>167</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>172</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>186</v>
+        <v>167.4</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>195</v>
+        <v>175.5</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>188</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>179</v>
+        <v>161.1</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>168</v>
+        <v>151.20000000000002</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>167</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>158</v>
+        <v>142.20000000000002</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>165</v>
+        <v>148.5</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>165</v>
+        <v>148.5</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>172</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>121</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -22990,99 +22990,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2</v>
+        <v>2.8800000000000003</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0999999999999996</v>
+        <v>3.69</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2</v>
+        <v>5.58</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9</v>
+        <v>5.3100000000000005</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3</v>
+        <v>2.9699999999999998</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4000000000000004</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9</v>
+        <v>5.3100000000000005</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -23091,99 +23091,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.099999999999998</v>
+        <v>20.79</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.1</v>
+        <v>19.89</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.9</v>
+        <v>19.71</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.700000000000003</v>
+        <v>19.530000000000005</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.9</v>
+        <v>19.71</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.4</v>
+        <v>26.46</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.099999999999994</v>
+        <v>29.789999999999996</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35</v>
+        <v>31.5</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.1</v>
+        <v>29.790000000000003</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.1</v>
+        <v>28.89</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.300000000000004</v>
+        <v>30.870000000000005</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.1</v>
+        <v>30.69</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.900000000000002</v>
+        <v>28.71</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.5</v>
+        <v>27.45</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.400000000000002</v>
+        <v>26.46</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.4</v>
+        <v>26.46</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.1</v>
+        <v>25.290000000000003</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.9</v>
+        <v>26.009999999999998</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.4</v>
+        <v>27.36</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.900000000000002</v>
+        <v>26.910000000000004</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.6</v>
+        <v>28.44</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.4</v>
+        <v>26.46</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.200000000000003</v>
+        <v>22.680000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -23192,99 +23192,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6999999999999993</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6999999999999993</v>
+        <v>5.13</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3999999999999995</v>
+        <v>5.76</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8000000000000007</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8</v>
+        <v>5.22</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1999999999999993</v>
+        <v>7.38</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4</v>
+        <v>6.66</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7</v>
+        <v>6.9300000000000006</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3000000000000007</v>
+        <v>7.4700000000000006</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1</v>
+        <v>6.39</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8000000000000007</v>
+        <v>7.0200000000000005</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6</v>
+        <v>6.84</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2</v>
+        <v>6.48</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2</v>
+        <v>6.48</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6</v>
+        <v>6.84</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4</v>
+        <v>6.66</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6999999999999993</v>
+        <v>7.8299999999999992</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5</v>
+        <v>7.65</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1000000000000014</v>
+        <v>8.1900000000000013</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8999999999999995</v>
+        <v>7.1099999999999994</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3000000000000007</v>
+        <v>7.4700000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -23293,11 +23293,11 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23313,79 +23313,79 @@
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -23394,99 +23394,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4000000000000004</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5999999999999996</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7</v>
+        <v>5.13</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6</v>
+        <v>5.04</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8</v>
+        <v>5.22</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6</v>
+        <v>5.04</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3</v>
+        <v>3.87</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2</v>
+        <v>3.7800000000000002</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -23495,99 +23495,99 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Pc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7</v>
+        <v>5.13</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Pc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2</v>
+        <v>4.6800000000000006</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Pc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Pc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8</v>
+        <v>4.32</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Pc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8</v>
+        <v>4.32</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Pc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8</v>
+        <v>4.32</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Pc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9</v>
+        <v>6.2100000000000009</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Pc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Pc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8000000000000007</v>
+        <v>8.82</v>
       </c>
       <c r="K16" s="1">
         <f>'[1]Pc, 2020, Summer'!K16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6999999999999993</v>
+        <v>8.73</v>
       </c>
       <c r="L16" s="1">
         <f>'[1]Pc, 2020, Summer'!L16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="M16" s="1">
         <f>'[1]Pc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8000000000000007</v>
+        <v>8.82</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Pc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.3</v>
+        <v>9.2700000000000014</v>
       </c>
       <c r="O16" s="1">
         <f>'[1]Pc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Pc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Pc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6</v>
+        <v>7.74</v>
       </c>
       <c r="R16" s="1">
         <f>'[1]Pc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6</v>
+        <v>7.74</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Pc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6999999999999993</v>
+        <v>7.8299999999999992</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Pc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6999999999999993</v>
+        <v>8.73</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Pc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Pc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Pc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.1</v>
+        <v>9.09</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Pc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8000000000000007</v>
+        <v>7.9200000000000008</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Pc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9</v>
+        <v>6.2100000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -23596,99 +23596,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Pc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.5</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Pc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.7</v>
+        <v>17.73</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Pc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.299999999999997</v>
+        <v>17.369999999999997</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Pc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.5</v>
+        <v>16.650000000000002</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Pc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.3</v>
+        <v>16.470000000000002</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Pc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.2</v>
+        <v>16.38</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Pc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.6</v>
+        <v>21.240000000000002</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Pc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.1</v>
+        <v>24.39</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Pc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.9</v>
+        <v>26.009999999999998</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Pc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Pc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.8</v>
+        <v>26.82</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Pc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.5</v>
+        <v>27.45</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Pc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.5</v>
+        <v>27.45</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Pc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32</v>
+        <v>28.8</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Pc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.200000000000003</v>
+        <v>26.280000000000005</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Pc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.9</v>
+        <v>26.91</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Pc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.5</v>
+        <v>26.55</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Pc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.5</v>
+        <v>26.55</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Pc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.4</v>
+        <v>25.56</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Pc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.4</v>
+        <v>25.56</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Pc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.1</v>
+        <v>25.290000000000003</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Pc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.4</v>
+        <v>27.36</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Pc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.9</v>
+        <v>26.009999999999998</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Pc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.9</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -23697,99 +23697,99 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Pc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.9</v>
+        <v>9.81</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Pc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Pc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8000000000000007</v>
+        <v>8.82</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Pc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8000000000000007</v>
+        <v>8.82</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Pc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.1</v>
+        <v>9.09</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Pc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.3</v>
+        <v>9.2700000000000014</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Pc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.7</v>
+        <v>12.33</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Pc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.6</v>
+        <v>14.04</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Pc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.100000000000001</v>
+        <v>14.490000000000002</v>
       </c>
       <c r="K18" s="1">
         <f>'[1]Pc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.8</v>
+        <v>13.32</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Pc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.2</v>
+        <v>13.68</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Pc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.2</v>
+        <v>15.48</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Pc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.100000000000001</v>
+        <v>15.390000000000002</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Pc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.600000000000001</v>
+        <v>14.940000000000001</v>
       </c>
       <c r="P18" s="1">
         <f>'[1]Pc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.9</v>
+        <v>14.31</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Pc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.9</v>
+        <v>13.41</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Pc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.4</v>
+        <v>13.860000000000001</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Pc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.5</v>
+        <v>13.950000000000001</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Pc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.5</v>
+        <v>13.950000000000001</v>
       </c>
       <c r="U18" s="1">
         <f>'[1]Pc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.8</v>
+        <v>13.32</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Pc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.2</v>
+        <v>14.58</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Pc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.7</v>
+        <v>14.129999999999999</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Pc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.1</v>
+        <v>11.79</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Pc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.1</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -23798,99 +23798,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Pc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.1</v>
+        <v>9.09</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Pc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1999999999999993</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Pc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9</v>
+        <v>7.11</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Pc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6999999999999993</v>
+        <v>7.8299999999999992</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Pc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Pc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6</v>
+        <v>8.64</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Pc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.1</v>
+        <v>11.79</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Pc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.3</v>
+        <v>13.770000000000001</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Pc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.2</v>
+        <v>14.58</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Pc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.9</v>
+        <v>14.31</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Pc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.3</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Pc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.2</v>
+        <v>14.58</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Pc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.8</v>
+        <v>14.22</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Pc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.5</v>
+        <v>13.950000000000001</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Pc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.1</v>
+        <v>11.79</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Pc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.7</v>
+        <v>11.43</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Pc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Pc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.4</v>
+        <v>11.16</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Pc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.2</v>
+        <v>10.98</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Pc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.5</v>
+        <v>12.15</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Pc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.6</v>
+        <v>12.24</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Pc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.5</v>
+        <v>13.05</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Pc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.2</v>
+        <v>11.879999999999999</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Pc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.3</v>
+        <v>10.170000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -23899,35 +23899,35 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Pc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Pc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Pc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Pc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Pc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Pc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Pc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Pc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Pc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23935,31 +23935,31 @@
       </c>
       <c r="K20" s="1">
         <f>'[1]Pc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Pc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Pc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Pc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Pc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Pc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Pc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Pc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23971,27 +23971,27 @@
       </c>
       <c r="T20" s="1">
         <f>'[1]Pc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Pc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Pc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Pc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Pc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Pc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -24000,99 +24000,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Pc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.100000000000001</v>
+        <v>14.490000000000002</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Pc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.1</v>
+        <v>13.59</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Pc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.5</v>
+        <v>13.05</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Pc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.3</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Pc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.7</v>
+        <v>13.23</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Pc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.1</v>
+        <v>12.69</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Pc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.8</v>
+        <v>15.120000000000001</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Pc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.2</v>
+        <v>17.28</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Pc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.2</v>
+        <v>18.18</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Pc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Pc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.6</v>
+        <v>20.340000000000003</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Pc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.5</v>
+        <v>22.95</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Pc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.100000000000001</v>
+        <v>15.390000000000002</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Pc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23</v>
+        <v>20.7</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Pc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.8</v>
+        <v>19.62</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Pc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.2</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Pc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.2</v>
+        <v>19.98</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Pc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.1</v>
+        <v>18.990000000000002</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Pc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.2</v>
+        <v>17.28</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Pc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.899999999999999</v>
+        <v>17.91</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Pc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Pc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.2</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Pc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.100000000000001</v>
+        <v>15.390000000000002</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Pc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.6</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -24101,99 +24101,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Pc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Pc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Pc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Pc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Pc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Pc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Pc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Pc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2</v>
+        <v>5.58</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Pc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1</v>
+        <v>6.39</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Pc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1</v>
+        <v>6.39</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Pc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2</v>
+        <v>5.58</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Pc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8</v>
+        <v>7.02</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Pc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Pc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3</v>
+        <v>5.67</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Pc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Pc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Pc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2</v>
+        <v>4.6800000000000006</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Pc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Pc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2</v>
+        <v>4.6800000000000006</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Pc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6</v>
+        <v>5.04</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Pc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Pc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7</v>
+        <v>6.03</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Pc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Pc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -24202,99 +24202,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Pc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Pc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Pc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Pc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Pc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Pc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Pc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Pc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Pc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Pc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Pc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Pc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Pc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Pc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Pc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2</v>
+        <v>5.58</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Pc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2</v>
+        <v>5.58</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Pc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2</v>
+        <v>5.58</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Pc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3</v>
+        <v>5.67</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Pc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3</v>
+        <v>5.67</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Pc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3</v>
+        <v>5.67</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Pc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3</v>
+        <v>5.67</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Pc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Pc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Pc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -24303,99 +24303,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Pc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.6</v>
+        <v>-3.24</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Pc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-19.600000000000001</v>
+        <v>-17.64</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Pc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-22.6</v>
+        <v>-20.340000000000003</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Pc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-24.6</v>
+        <v>-22.14</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Pc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-14.6</v>
+        <v>-13.14</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Pc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-26.6</v>
+        <v>-23.94</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Pc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.6</v>
+        <v>-7.74</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Pc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.6</v>
+        <v>-10.44</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Pc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-14.6</v>
+        <v>-13.14</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Pc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Pc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.4</v>
+        <v>9.3600000000000012</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Pc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.399999999999999</v>
+        <v>15.659999999999998</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Pc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.4</v>
+        <v>39.96</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Pc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>71.400000000000006</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Pc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>68.400000000000006</v>
+        <v>61.560000000000009</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Pc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.4</v>
+        <v>57.06</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Pc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.4</v>
+        <v>53.46</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Pc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>57.4</v>
+        <v>51.66</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Pc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.4</v>
+        <v>24.66</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Pc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.4</v>
+        <v>30.06</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Pc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>53.4</v>
+        <v>48.06</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Pc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.4</v>
+        <v>57.06</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Pc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.4</v>
+        <v>57.06</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Pc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>69.400000000000006</v>
+        <v>62.460000000000008</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -24404,99 +24404,99 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Pc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34</v>
+        <v>30.6</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Pc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.899999999999995</v>
+        <v>28.709999999999997</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Pc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.800000000000004</v>
+        <v>26.820000000000004</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Pc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.999999999999996</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Pc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.399999999999995</v>
+        <v>25.559999999999995</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Pc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.299999999999997</v>
+        <v>22.77</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Pc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.700000000000003</v>
+        <v>31.230000000000004</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Pc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39</v>
+        <v>35.1</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Pc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.8</v>
+        <v>44.82</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Pc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.800000000000004</v>
+        <v>44.820000000000007</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Pc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55</v>
+        <v>49.5</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Pc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.4</v>
+        <v>50.76</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Pc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.9</v>
+        <v>51.21</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Pc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>67.5</v>
+        <v>60.75</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Pc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>69.099999999999994</v>
+        <v>62.19</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Pc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.8</v>
+        <v>56.519999999999996</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Pc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.6</v>
+        <v>53.64</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Pc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.600000000000009</v>
+        <v>49.140000000000008</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Pc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.599999999999994</v>
+        <v>44.639999999999993</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Pc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.3</v>
+        <v>48.87</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Pc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>44.400000000000006</v>
+        <v>39.960000000000008</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Pc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>46.399999999999991</v>
+        <v>41.759999999999991</v>
       </c>
       <c r="X25" s="1">
         <f>'[1]Pc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.1</v>
+        <v>50.49</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Pc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>45.199999999999996</v>
+        <v>40.68</v>
       </c>
     </row>
   </sheetData>
@@ -34661,75 +34661,75 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4000000000000004</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30000000000000004</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60000000000000009</v>
+        <v>0.54000000000000015</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3</v>
+        <v>2.9699999999999998</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34737,15 +34737,15 @@
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34762,99 +34762,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -34863,79 +34863,79 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.8</v>
+        <v>-2.52</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.7</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.6999999999999997</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.6999999999999997</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3</v>
+        <v>-2.9699999999999998</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2</v>
+        <v>2.8800000000000003</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1</v>
+        <v>-1.8900000000000001</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89999999999999991</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34943,19 +34943,19 @@
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9</v>
+        <v>-1.71</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.6</v>
+        <v>-2.3400000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -34964,99 +34964,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.54000000000000015</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0000000000000002</v>
+        <v>-0.90000000000000024</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7</v>
+        <v>-1.53</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7</v>
+        <v>-1.53</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5999999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.8</v>
+        <v>-3.42</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9999999999999998</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8</v>
+        <v>6.12</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3</v>
+        <v>5.67</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6</v>
+        <v>7.74</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1999999999999993</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1999999999999993</v>
+        <v>7.38</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6999999999999993</v>
+        <v>5.13</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8</v>
+        <v>4.32</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0999999999999996</v>
+        <v>3.69</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9999999999999996</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3000000000000003</v>
+        <v>2.97</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6000000000000005</v>
+        <v>3.2400000000000007</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1999999999999997</v>
+        <v>1.0799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -35065,99 +35065,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89999999999999991</v>
+        <v>0.80999999999999994</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7999999999999998</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7000000000000002</v>
+        <v>1.5300000000000002</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7000000000000002</v>
+        <v>1.5300000000000002</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7999999999999998</v>
+        <v>1.6199999999999999</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7000000000000002</v>
+        <v>1.5300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -35166,99 +35166,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>100.5</v>
+        <v>90.45</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.1</v>
+        <v>90.99</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.3</v>
+        <v>92.07</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>103.1</v>
+        <v>92.789999999999992</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>103.3</v>
+        <v>92.97</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>103.5</v>
+        <v>93.15</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>101.2</v>
+        <v>91.08</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97.6</v>
+        <v>87.84</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>95.9</v>
+        <v>86.31</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>93</v>
+        <v>83.7</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>93.7</v>
+        <v>84.33</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>92.6</v>
+        <v>83.34</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>93.7</v>
+        <v>84.33</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>93.5</v>
+        <v>84.15</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>94.7</v>
+        <v>85.23</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>96.5</v>
+        <v>86.850000000000009</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>96.7</v>
+        <v>87.03</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>96.2</v>
+        <v>86.58</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>96.9</v>
+        <v>87.210000000000008</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>96.1</v>
+        <v>86.49</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97.7</v>
+        <v>87.93</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>96.6</v>
+        <v>86.94</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97</v>
+        <v>87.3</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97.4</v>
+        <v>87.660000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -35267,99 +35267,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.4</v>
+        <v>20.16</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.3</v>
+        <v>13.770000000000001</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.1</v>
+        <v>12.69</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.1</v>
+        <v>13.59</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.899999999999999</v>
+        <v>17.009999999999998</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.399999999999999</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.9</v>
+        <v>19.71</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.899999999999999</v>
+        <v>17.009999999999998</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.899999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.8</v>
+        <v>19.62</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.1</v>
+        <v>20.790000000000003</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.8</v>
+        <v>23.220000000000002</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.7</v>
+        <v>24.03</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.7</v>
+        <v>23.13</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.8</v>
+        <v>26.82</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.8</v>
+        <v>28.62</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.700000000000003</v>
+        <v>30.330000000000002</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.6</v>
+        <v>27.540000000000003</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31</v>
+        <v>27.900000000000002</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.7</v>
+        <v>27.63</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.6</v>
+        <v>23.94</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.5</v>
+        <v>27.45</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.4</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -35368,99 +35368,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9</v>
+        <v>-8.1</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.3000000000000007</v>
+        <v>-8.370000000000001</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.1</v>
+        <v>-8.19</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.3000000000000007</v>
+        <v>-8.370000000000001</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.1999999999999993</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.4</v>
+        <v>-9.3600000000000012</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.6999999999999993</v>
+        <v>-7.8299999999999992</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2</v>
+        <v>-2.8800000000000003</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4</v>
+        <v>-2.16</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7000000000000002</v>
+        <v>-1.5300000000000002</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7000000000000002</v>
+        <v>1.5300000000000002</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39999999999999991</v>
+        <v>-0.35999999999999993</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9</v>
+        <v>-1.71</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.9</v>
+        <v>-2.61</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.4000000000000004</v>
+        <v>-3.9600000000000004</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.8</v>
+        <v>-4.32</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2</v>
+        <v>-2.8800000000000003</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.3</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -35469,99 +35469,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-34</v>
+        <v>-30.6</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-40</v>
+        <v>-36</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-42</v>
+        <v>-37.800000000000004</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-44</v>
+        <v>-39.6</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-42</v>
+        <v>-37.800000000000004</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-62</v>
+        <v>-55.800000000000004</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-47</v>
+        <v>-42.300000000000004</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-24</v>
+        <v>-21.6</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7</v>
+        <v>-6.3</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17</v>
+        <v>-15.3</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16</v>
+        <v>-14.4</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15</v>
+        <v>-13.5</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11</v>
+        <v>-9.9</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17</v>
+        <v>-15.3</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-26</v>
+        <v>-23.400000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -35570,99 +35570,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5</v>
+        <v>-6.75</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3</v>
+        <v>-6.57</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3</v>
+        <v>-6.57</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7</v>
+        <v>-6.3</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1</v>
+        <v>-6.39</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8</v>
+        <v>-6.12</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1</v>
+        <v>-6.39</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.2</v>
+        <v>-5.58</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.4</v>
+        <v>-5.7600000000000007</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3</v>
+        <v>-6.57</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2</v>
+        <v>-6.48</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5</v>
+        <v>-5.8500000000000005</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.5</v>
+        <v>-4.95</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.7</v>
+        <v>-5.13</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5</v>
+        <v>-6.75</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5</v>
+        <v>-5.8500000000000005</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2</v>
+        <v>-6.48</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.1</v>
+        <v>-5.49</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7</v>
+        <v>-6.3</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.8</v>
+        <v>-5.22</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9</v>
+        <v>6.2100000000000009</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5</v>
+        <v>-5.8500000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -35671,99 +35671,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.89999999999999991</v>
+        <v>-0.80999999999999994</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.89999999999999991</v>
+        <v>-0.80999999999999994</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4000000000000004</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9</v>
+        <v>3.51</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9999999999999991</v>
+        <v>3.5999999999999992</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0999999999999996</v>
+        <v>4.59</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4000000000000004</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5999999999999996</v>
+        <v>2.34</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7000000000000002</v>
+        <v>1.5300000000000002</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0000000000000002</v>
+        <v>0.90000000000000024</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.9999999999999867E-2</v>
+        <v>-8.9999999999999886E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -35772,43 +35772,43 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0999999999999999</v>
+        <v>-0.98999999999999988</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.17999999999999997</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10000000000000009</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35816,7 +35816,7 @@
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20000000000000007</v>
+        <v>0.18000000000000008</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35828,43 +35828,43 @@
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9999999999999978E-2</v>
+        <v>8.9999999999999983E-2</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.54000000000000015</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60000000000000009</v>
+        <v>-0.54000000000000015</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99999999999999989</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99999999999999989</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99999999999999989</v>
+        <v>-0.89999999999999991</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -35873,99 +35873,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7</v>
+        <v>-1.53</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7</v>
+        <v>-1.53</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9</v>
+        <v>-1.71</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6</v>
+        <v>-1.4400000000000002</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6</v>
+        <v>-1.4400000000000002</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6</v>
+        <v>-1.4400000000000002</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4</v>
+        <v>-1.26</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4</v>
+        <v>-1.26</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -35974,99 +35974,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -36075,35 +36075,35 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Qc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Qc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6</v>
+        <v>-1.4400000000000002</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Qc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Qc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4</v>
+        <v>-1.26</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Qc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Qc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7</v>
+        <v>-1.53</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Qc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Qc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Qc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36119,7 +36119,7 @@
       </c>
       <c r="M16" s="1">
         <f>'[1]Qc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Qc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36127,11 +36127,11 @@
       </c>
       <c r="O16" s="1">
         <f>'[1]Qc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Qc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Qc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36139,35 +36139,35 @@
       </c>
       <c r="R16" s="1">
         <f>'[1]Qc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Qc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Qc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Qc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Qc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Qc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Qc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Qc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -36176,99 +36176,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Qc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Qc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Qc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Qc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Qc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4000000000000001</v>
+        <v>-1.2600000000000002</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Qc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4000000000000001</v>
+        <v>-1.2600000000000002</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Qc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Qc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Qc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4000000000000004</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Qc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Qc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2</v>
+        <v>2.8800000000000003</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Qc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Qc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Qc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Qc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4000000000000004</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Qc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4000000000000004</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Qc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0999999999999996</v>
+        <v>2.7899999999999996</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Qc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4000000000000004</v>
+        <v>3.0600000000000005</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Qc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8000000000000003</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Qc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2</v>
+        <v>2.8800000000000003</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Qc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Qc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Qc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Qc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -36277,35 +36277,35 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Qc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Qc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8</v>
+        <v>-1.62</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Qc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1</v>
+        <v>-1.8900000000000001</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Qc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1</v>
+        <v>-1.8900000000000001</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Qc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2000000000000002</v>
+        <v>-1.9800000000000002</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Qc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2000000000000002</v>
+        <v>-1.9800000000000002</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Qc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Qc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4</v>
+        <v>-0.36000000000000004</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Qc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36313,19 +36313,19 @@
       </c>
       <c r="K18" s="1">
         <f>'[1]Qc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Qc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Qc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Qc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Qc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36333,19 +36333,19 @@
       </c>
       <c r="P18" s="1">
         <f>'[1]Qc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Qc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Qc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Qc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Qc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36353,23 +36353,23 @@
       </c>
       <c r="U18" s="1">
         <f>'[1]Qc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Qc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Qc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Qc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4</v>
+        <v>-1.26</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Qc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -36378,99 +36378,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Qc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Qc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Qc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Qc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1000000000000001</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Qc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Qc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Qc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Qc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Qc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Qc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Qc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Qc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Qc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Qc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Qc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Qc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Qc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Qc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Qc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Qc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Qc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Qc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Qc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Qc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -36479,99 +36479,99 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Qc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Qc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Qc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Qc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Qc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Qc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Qc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Qc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Qc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="K20" s="1">
         <f>'[1]Qc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Qc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Qc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Qc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Qc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Qc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Qc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Qc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S20" s="1">
         <f>'[1]Qc, 2020, Summer'!S20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T20" s="1">
         <f>'[1]Qc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Qc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Qc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Qc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Qc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2999999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Qc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -36580,99 +36580,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Qc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Qc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Qc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Qc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Qc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Qc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3</v>
+        <v>-1.1700000000000002</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Qc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Qc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Qc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Qc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Qc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Qc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Qc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Qc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Qc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Qc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Qc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Qc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Qc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Qc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Qc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Qc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Qc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Qc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -36681,99 +36681,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Qc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6</v>
+        <v>-0.54</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Qc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Qc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Qc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Qc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.8</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Qc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.9</v>
+        <v>-0.81</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Qc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1</v>
+        <v>-9.0000000000000011E-2</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Qc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Qc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Qc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Qc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Qc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Qc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Qc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Qc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Qc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Qc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Qc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Qc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Qc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Qc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Qc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Qc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Qc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2</v>
+        <v>-0.18000000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -36782,99 +36782,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Qc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Qc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Qc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Qc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Qc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Qc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Qc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Qc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Qc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Qc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Qc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Qc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Qc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Qc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2000000000000002</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Qc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Qc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Qc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Qc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Qc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Qc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Qc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Qc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Qc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Qc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -36883,99 +36883,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Qc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.1999999999999993</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Qc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.2</v>
+        <v>-10.08</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Qc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-13.2</v>
+        <v>-11.879999999999999</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Qc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-19.2</v>
+        <v>-17.28</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Qc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-20.2</v>
+        <v>-18.18</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Qc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-23.2</v>
+        <v>-20.88</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Qc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.2</v>
+        <v>-14.58</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Qc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.17999999999999997</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Qc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8</v>
+        <v>5.22</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Qc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.8</v>
+        <v>14.22</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Qc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.8</v>
+        <v>13.32</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Qc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8000000000000007</v>
+        <v>8.82</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Qc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8</v>
+        <v>5.22</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Qc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2</v>
+        <v>-2.8800000000000003</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Qc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2</v>
+        <v>-1.08</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Qc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.2</v>
+        <v>-5.58</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Qc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.2</v>
+        <v>-5.58</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Qc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.1999999999999993</v>
+        <v>-7.38</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Qc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19999999999999996</v>
+        <v>-0.17999999999999997</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Qc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2000000000000002</v>
+        <v>-1.9800000000000002</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Qc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.1999999999999993</v>
+        <v>-7.38</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Qc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.199999999999999</v>
+        <v>-9.18</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Qc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.199999999999999</v>
+        <v>-9.18</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Qc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-15.2</v>
+        <v>-13.68</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -36984,87 +36984,87 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Qc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3000000000000007</v>
+        <v>-5.6700000000000008</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Qc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3</v>
+        <v>-5.67</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Qc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3000000000000007</v>
+        <v>-2.9700000000000006</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Qc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9999999999999991</v>
+        <v>-1.7999999999999992</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Qc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.9000000000000004</v>
+        <v>-3.5100000000000002</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Qc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3000000000000007</v>
+        <v>-2.0700000000000007</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Qc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.3</v>
+        <v>-3.87</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Qc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2000000000000011</v>
+        <v>4.6800000000000015</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Qc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5000000000000009</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Qc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3000000000000007</v>
+        <v>1.1700000000000006</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Qc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1999999999999984</v>
+        <v>2.8799999999999986</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Qc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6</v>
+        <v>6.84</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Qc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0999999999999988</v>
+        <v>5.4899999999999993</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Qc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2000000000000011</v>
+        <v>6.4800000000000013</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Qc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7999999999999989</v>
+        <v>1.619999999999999</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Qc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6999999999999975</v>
+        <v>7.8299999999999983</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Qc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9999999999999991</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Qc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4000000000000004</v>
+        <v>3.9600000000000004</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Qc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1999999999999984</v>
+        <v>4.6799999999999988</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Qc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1</v>
+        <v>5.49</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Qc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Qc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -37072,11 +37072,11 @@
       </c>
       <c r="X25" s="1">
         <f>'[1]Qc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30000000000000071</v>
+        <v>0.27000000000000063</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Qc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.9999999999999982</v>
+        <v>-3.5999999999999983</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/Location1/Location1_2020.xlsx
+++ b/data/HR1/Location1/Location1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57BBF03-4B2A-4BF9-BC18-16E6E9595429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593012D-D31C-4B1A-8249-8D89513F3E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,7 +2886,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,7 +5008,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9470,7 +9470,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10641,7 +10641,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/HR1/Location1/Location1_2020.xlsx
+++ b/data/HR1/Location1/Location1_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_3\Location1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4E360-520A-453D-802B-5BBF040732D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B047A-0687-4C86-A5F8-BAC194A085AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ES installed'!$A$1:$B$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'EV Distribution'!$A$1:$A$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PV installed'!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PV installed'!$A$1:$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>numScenarios</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,6 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8155,18 +8159,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8179,23 +8183,28 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8203,15 +8212,95 @@
         <f>SUM('PV installed'!$B$2:$B$6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>SUM('ES installed'!$B$2:$B$7)</f>
-        <v>0</v>
-      </c>
+        <f>SUM('ES installed'!$B$2:$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8227,9 +8316,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8306,7 +8395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8407,7 +8496,7 @@
         <v>0.36820715749999999</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8508,7 +8597,7 @@
         <v>-3.0110833050000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8609,7 +8698,7 @@
         <v>3.33843231</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8710,7 +8799,7 @@
         <v>9.9863895874999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8811,7 +8900,7 @@
         <v>-5.68179875E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -8912,7 +9001,7 @@
         <v>97.918489454999985</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -9013,7 +9102,7 @@
         <v>11.1405906675</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -9114,7 +9203,7 @@
         <v>-10.38725376</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -9215,7 +9304,7 @@
         <v>-10.4649854025</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -9316,7 +9405,7 @@
         <v>-3.4349746699999999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -9417,7 +9506,7 @@
         <v>-0.90600000000000014</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -9518,7 +9607,7 @@
         <v>-1.1350059874999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -9619,7 +9708,7 @@
         <v>-0.98916113000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -9720,7 +9809,7 @@
         <v>-0.17525291000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -9821,7 +9910,7 @@
         <v>-1.6129493699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -9922,7 +10011,7 @@
         <v>1.4157733975</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30</v>
       </c>
@@ -10023,7 +10112,7 @@
         <v>-1.5143079474999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>35</v>
       </c>
@@ -10124,7 +10213,7 @@
         <v>3.1935901699999998</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>36</v>
       </c>
@@ -10225,7 +10314,7 @@
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -10326,7 +10415,7 @@
         <v>-1.61288261</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>55</v>
       </c>
@@ -10427,7 +10516,7 @@
         <v>0.75729369999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>68</v>
       </c>
@@ -10528,7 +10617,7 @@
         <v>1.39015198</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>72</v>
       </c>
@@ -10629,7 +10718,7 @@
         <v>7.0036814699999992</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>103</v>
       </c>
@@ -10730,7 +10819,7 @@
         <v>-7.6009185299999995</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10756,7 +10845,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10782,7 +10871,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10808,7 +10897,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10834,7 +10923,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10860,7 +10949,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10886,7 +10975,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10912,7 +11001,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10951,9 +11040,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -11030,7 +11119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11131,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11232,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11333,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11434,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11535,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11636,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11737,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -11838,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -11939,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -12040,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -12141,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -12242,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -12343,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -12444,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -12545,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -12646,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -12747,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -12848,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -12949,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -13050,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -13151,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -13252,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -13353,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -13454,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -13555,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -13656,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -13757,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -13858,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -13959,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -14060,7 +14149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -14174,9 +14263,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14253,7 +14342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14354,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14455,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14556,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14657,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14758,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -14859,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -14960,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15061,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -15162,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -15263,7 +15352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -15364,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -15465,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -15566,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15667,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -15768,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -15869,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -15970,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -16071,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -16172,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -16273,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -16374,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -16475,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -16576,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -16677,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -16778,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -16879,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -16980,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -17081,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -17182,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -17283,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -17394,12 +17483,12 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+      <selection activeCell="B2" sqref="B2:Y32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17476,7 +17565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17577,7 +17666,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17678,7 +17767,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17779,7 +17868,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17880,7 +17969,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17981,7 +18070,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18082,7 +18171,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18183,7 +18272,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18284,7 +18373,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -18385,7 +18474,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -18486,7 +18575,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -18587,7 +18676,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -18688,7 +18777,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -18789,7 +18878,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -18890,7 +18979,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -18991,7 +19080,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -19092,7 +19181,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -19193,7 +19282,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -19294,7 +19383,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -19395,7 +19484,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -19496,7 +19585,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -19597,7 +19686,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -19698,7 +19787,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -19799,7 +19888,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -19900,7 +19989,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -20001,7 +20090,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -20102,7 +20191,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -20203,7 +20292,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -20304,7 +20393,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -20405,7 +20494,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -20506,7 +20595,7 @@
         <v>41.589999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -20620,9 +20709,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -20699,7 +20788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -20776,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -20853,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -20930,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -21007,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -21084,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -21161,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -21238,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -21315,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -21392,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -21469,7 +21558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -21546,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -21623,7 +21712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
@@ -21700,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36</v>
       </c>
@@ -21777,711 +21866,711 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
       <c r="B17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
-      <c r="B20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>23</v>
       </c>
-      <c r="B22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+      <c r="B22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -22498,9 +22587,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -22577,7 +22666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -22654,7 +22743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -22731,7 +22820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -22808,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -22885,7 +22974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -22962,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -23039,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -23116,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -23193,7 +23282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -23270,7 +23359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -23347,7 +23436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -23424,7 +23513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -23501,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
@@ -23578,7 +23667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36</v>
       </c>
@@ -23655,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -23732,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -23809,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -23886,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>11</v>
       </c>
@@ -23963,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -24040,7 +24129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -24117,7 +24206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -24208,9 +24297,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -24364,7 +24453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -24441,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -24518,7 +24607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -24595,7 +24684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -24672,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -24749,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -24826,7 +24915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -24903,7 +24992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -24980,7 +25069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -25057,7 +25146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -25134,7 +25223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -25211,7 +25300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
@@ -25288,7 +25377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36</v>
       </c>
@@ -25365,7 +25454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -25442,7 +25531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -25519,7 +25608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -25596,7 +25685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>11</v>
       </c>
@@ -25673,7 +25762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -25750,7 +25839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -25827,7 +25916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -25918,9 +26007,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -25997,7 +26086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26098,7 +26187,7 @@
         <v>2.6210373100000002</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26199,7 +26288,7 @@
         <v>21.9391965875</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -26300,7 +26389,7 @@
         <v>30.088588715</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -26401,7 +26490,7 @@
         <v>45.620873215000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -26502,7 +26591,7 @@
         <v>-0.85125875499999992</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -26603,7 +26692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -26704,7 +26793,7 @@
         <v>9.6380481724999978</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -26805,7 +26894,7 @@
         <v>23.239999770000001</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -26906,7 +26995,7 @@
         <v>133.49614281500001</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -27007,7 +27096,7 @@
         <v>3.9307718300000003</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -27108,7 +27197,7 @@
         <v>23.437999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -27209,7 +27298,7 @@
         <v>6.6544340224999994</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -27310,7 +27399,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -27411,7 +27500,7 @@
         <v>4.1932373099999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -27512,7 +27601,7 @@
         <v>7.3431386925000002</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -27613,7 +27702,7 @@
         <v>21.943615917500001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30</v>
       </c>
@@ -27714,7 +27803,7 @@
         <v>12.401222945000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>35</v>
       </c>
@@ -27815,7 +27904,7 @@
         <v>11.491</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>36</v>
       </c>
@@ -27916,7 +28005,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -28017,7 +28106,7 @@
         <v>20.352794172500001</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>55</v>
       </c>
@@ -28118,7 +28207,7 @@
         <v>4.5049999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>68</v>
       </c>
@@ -28219,7 +28308,7 @@
         <v>2.1104774499999999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>72</v>
       </c>
@@ -28320,7 +28409,7 @@
         <v>78.250219212499999</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>103</v>
       </c>
@@ -28421,7 +28510,7 @@
         <v>35.197651382499998</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -28447,7 +28536,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -28473,7 +28562,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -28499,7 +28588,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -28525,7 +28614,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -28551,7 +28640,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -28577,7 +28666,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -28603,7 +28692,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -28642,9 +28731,9 @@
       <selection activeCell="B2" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28721,7 +28810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28822,7 +28911,7 @@
         <v>0.40190201250000002</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28923,7 +29012,7 @@
         <v>-0.91736732499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -29024,7 +29113,7 @@
         <v>-3.6220436100000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -29125,7 +29214,7 @@
         <v>5.9776219424999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -29226,7 +29315,7 @@
         <v>-0.78101387249999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -29327,7 +29416,7 @@
         <v>99.768484115000007</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -29428,7 +29517,7 @@
         <v>26.542306902500002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -29529,7 +29618,7 @@
         <v>-7.5044026375000019</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -29630,7 +29719,7 @@
         <v>-15.58641035</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -29731,7 +29820,7 @@
         <v>-4.2188873300000003</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -29832,7 +29921,7 @@
         <v>-0.50900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -29933,7 +30022,7 @@
         <v>-0.68245258000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -30034,7 +30123,7 @@
         <v>-1.5169999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -30135,7 +30224,7 @@
         <v>-0.12037849</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -30236,7 +30325,7 @@
         <v>-0.36182404000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -30337,7 +30426,7 @@
         <v>2.3632907875000004</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30</v>
       </c>
@@ -30438,7 +30527,7 @@
         <v>-1.0113350125</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>35</v>
       </c>
@@ -30539,7 +30628,7 @@
         <v>1.4876828225000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>36</v>
       </c>
@@ -30640,7 +30729,7 @@
         <v>1.466</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -30741,7 +30830,7 @@
         <v>0.11722955999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>55</v>
       </c>
@@ -30842,7 +30931,7 @@
         <v>-0.41099999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>68</v>
       </c>
@@ -30943,7 +31032,7 @@
         <v>0.18394089</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>72</v>
       </c>
@@ -31044,7 +31133,7 @@
         <v>-21.568266455</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>103</v>
       </c>
@@ -31145,7 +31234,7 @@
         <v>-9.4396524450000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -31171,7 +31260,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -31197,7 +31286,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -31223,7 +31312,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -31249,7 +31338,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -31275,7 +31364,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -31301,7 +31390,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -31327,7 +31416,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -31366,9 +31455,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -31445,7 +31534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31546,7 +31635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31647,7 +31736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31748,7 +31837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31849,7 +31938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31950,7 +32039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32051,7 +32140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32152,7 +32241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32253,7 +32342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -32354,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -32455,7 +32544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -32556,7 +32645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -32657,7 +32746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -32758,7 +32847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -32859,7 +32948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -32960,7 +33049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -33061,7 +33150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -33162,7 +33251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -33263,7 +33352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -33364,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -33465,7 +33554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -33566,7 +33655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -33667,7 +33756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -33768,7 +33857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -33869,7 +33958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -33970,7 +34059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -34071,7 +34160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -34172,7 +34261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -34273,7 +34362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -34374,7 +34463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -34475,7 +34564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -34589,12 +34678,12 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -34671,7 +34760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -34757,13 +34846,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1913BFF1-C6A8-48D9-8DEC-5F961E10815C}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -34840,7 +34929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34941,7 +35030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -35042,7 +35131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -35143,7 +35232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -35244,7 +35333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -35345,7 +35434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35446,7 +35535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -35547,7 +35636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -35648,7 +35737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -35749,7 +35838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -35850,7 +35939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -35951,7 +36040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -36052,7 +36141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -36153,7 +36242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -36254,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -36355,7 +36444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -36456,7 +36545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -36557,7 +36646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -36658,7 +36747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -36759,7 +36848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -36860,7 +36949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -36961,7 +37050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -37062,7 +37151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -37163,7 +37252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -37264,7 +37353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -37365,7 +37454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -37466,7 +37555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -37567,7 +37656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -37668,7 +37757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -37769,7 +37858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -37870,7 +37959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -37981,12 +38070,12 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y32"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -38063,7 +38152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -38164,7 +38253,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -38265,7 +38354,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -38366,7 +38455,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -38467,7 +38556,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -38568,7 +38657,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -38669,7 +38758,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -38770,7 +38859,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -38871,7 +38960,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -38972,7 +39061,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -39073,7 +39162,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -39174,7 +39263,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -39275,7 +39364,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -39376,7 +39465,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -39477,7 +39566,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -39578,7 +39667,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -39679,7 +39768,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -39780,7 +39869,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -39881,7 +39970,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -39982,7 +40071,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -40083,7 +40172,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -40184,7 +40273,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -40285,7 +40374,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -40386,7 +40475,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -40487,7 +40576,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -40588,7 +40677,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -40689,7 +40778,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -40790,7 +40879,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -40891,7 +40980,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -40992,7 +41081,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -41093,7 +41182,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -41207,9 +41296,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -41286,7 +41375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -41363,7 +41452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -41440,7 +41529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -41517,7 +41606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -41594,7 +41683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -41671,7 +41760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -41748,7 +41837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -41825,7 +41914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -41902,7 +41991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -41979,7 +42068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -42056,7 +42145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -42133,7 +42222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -42210,7 +42299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
@@ -42287,7 +42376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36</v>
       </c>
@@ -42364,711 +42453,711 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <f>VLOOKUP($A16,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
       <c r="B17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="N17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <f>VLOOKUP($A17,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="B18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7">
-        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" s="7" t="e">
+        <f>VLOOKUP($A18,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>11</v>
       </c>
-      <c r="B19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="7" t="e">
+        <f>VLOOKUP($A19,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
-      <c r="B20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="7" t="e">
+        <f>VLOOKUP($A20,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="7" t="e">
+        <f>VLOOKUP($A21,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>23</v>
       </c>
-      <c r="B22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="7">
-        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$8,2,FALSE)</f>
-        <v>0</v>
+      <c r="B22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" s="7" t="e">
+        <f>VLOOKUP($A22,'PV installed'!$A$2:$B$6,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -43085,9 +43174,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -43164,7 +43253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -43241,7 +43330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -43318,7 +43407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -43395,7 +43484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -43472,7 +43561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -43549,7 +43638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -43626,7 +43715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -43703,7 +43792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -43780,7 +43869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -43857,7 +43946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -43934,7 +44023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -44011,7 +44100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -44088,7 +44177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
@@ -44165,7 +44254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36</v>
       </c>
@@ -44242,7 +44331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -44319,7 +44408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -44396,7 +44485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -44473,7 +44562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>11</v>
       </c>
@@ -44550,7 +44639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -44627,7 +44716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -44704,7 +44793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -44795,9 +44884,9 @@
       <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -44874,7 +44963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -44951,7 +45040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -45028,7 +45117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -45105,7 +45194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -45182,7 +45271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -45259,7 +45348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -45336,7 +45425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -45413,7 +45502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -45490,7 +45579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -45567,7 +45656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -45644,7 +45733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
@@ -45721,7 +45810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34</v>
       </c>
@@ -45798,7 +45887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
@@ -45875,7 +45964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>36</v>
       </c>
@@ -45952,7 +46041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -46029,7 +46118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -46106,7 +46195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -46183,7 +46272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>11</v>
       </c>
@@ -46260,7 +46349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -46337,7 +46426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -46414,7 +46503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -46499,18 +46588,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -46518,78 +46607,478 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>36</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>55</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>68</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>72</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>103</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F60FAF-AA5F-4713-9706-F31BA42436CB}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -46654,8 +47143,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -46720,9 +47209,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -46786,9 +47275,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -46852,9 +47341,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -46918,9 +47407,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13</v>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -46984,9 +47473,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -47050,9 +47539,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>23</v>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -47115,6 +47604,1134 @@
       <c r="U8" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <f>VLOOKUP(A9,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f>VLOOKUP(A10,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <f>VLOOKUP(A11,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <f>VLOOKUP(A12,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <f>VLOOKUP(A13,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <f>VLOOKUP(A14,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <f>VLOOKUP(A15,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <f>VLOOKUP(A16,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <f>VLOOKUP(A17,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <f>VLOOKUP(A18,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <f>VLOOKUP(A19,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f>VLOOKUP(A20,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <f>VLOOKUP(A21,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <f>VLOOKUP(A22,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <f>VLOOKUP(A23,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>103</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <f>VLOOKUP(A24,'PV installed'!$A$2:$B$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47123,18 +48740,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A34B4-2389-47FB-B2B8-B4CBDDE497E7}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47142,80 +48759,193 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8</v>
-      </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>103</v>
+      </c>
+      <c r="B24" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47227,9 +48957,9 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -47255,7 +48985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -47284,21 +49014,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="e">
         <f>VLOOKUP($A3,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="2" t="e">
         <f t="shared" ref="C3:C7" si="0">B3*2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="2" t="e">
         <f t="shared" ref="D3:D7" si="1">C3*0.5</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="2">
         <v>0.95</v>
@@ -47313,21 +49043,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="e">
         <f>VLOOKUP($A4,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="2">
         <v>0.95</v>
@@ -47342,7 +49072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -47371,21 +49101,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="e">
         <f>VLOOKUP($A6,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="2">
         <v>0.95</v>
@@ -47400,7 +49130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -47429,21 +49159,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="e">
         <f>VLOOKUP($A8,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="2" t="e">
         <f t="shared" ref="C8:C10" si="2">B8*2</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="2" t="e">
         <f t="shared" ref="D8:D10" si="3">C8*0.5</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="2">
         <v>0.95</v>
@@ -47458,7 +49188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -47487,21 +49217,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="e">
         <f>VLOOKUP($A10,'ES installed'!$A$2:$B$1048576,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="E10" s="2">
         <v>0.95</v>
@@ -47529,9 +49259,9 @@
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -47539,7 +49269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -47547,7 +49277,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -47555,7 +49285,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -47563,7 +49293,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -47571,7 +49301,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -47579,7 +49309,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -47587,7 +49317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -47595,7 +49325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -47603,7 +49333,7 @@
         <v>9.6299999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -47611,7 +49341,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -47619,7 +49349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -47627,7 +49357,7 @@
         <v>0.2586</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -47635,7 +49365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -47643,7 +49373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -47651,7 +49381,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -47659,7 +49389,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -47667,7 +49397,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -47675,7 +49405,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -47683,7 +49413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -47691,7 +49421,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -47699,7 +49429,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -47707,7 +49437,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>29</v>
       </c>
@@ -47715,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -47723,7 +49453,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -47731,7 +49461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -47739,7 +49469,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>36</v>
       </c>
@@ -47747,7 +49477,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>42</v>
       </c>
@@ -47755,7 +49485,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>55</v>
       </c>
@@ -47763,7 +49493,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>68</v>
       </c>
@@ -47771,7 +49501,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>72</v>
       </c>
@@ -47779,7 +49509,7 @@
         <v>9.2299999999999993E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>103</v>
       </c>
@@ -47800,12 +49530,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -47882,7 +49612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -47959,7 +49689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -48036,7 +49766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -48113,7 +49843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
     </row>
   </sheetData>
@@ -48129,9 +49859,9 @@
       <selection activeCell="B3" sqref="B2:Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48208,7 +49938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -48309,7 +50039,7 @@
         <v>0.5460923325</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -48410,7 +50140,7 @@
         <v>20.631602287500002</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -48511,7 +50241,7 @@
         <v>21.535776139999996</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -48612,7 +50342,7 @@
         <v>69.785544162500003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -48713,7 +50443,7 @@
         <v>-1.6657662400000008</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -48814,7 +50544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -48915,7 +50645,7 @@
         <v>22.432296754999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -49016,7 +50746,7 @@
         <v>29.600742340000004</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -49117,7 +50847,7 @@
         <v>212.40943530499999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -49218,7 +50948,7 @@
         <v>4.1325998300000002</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -49319,7 +51049,7 @@
         <v>28.628999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -49420,7 +51150,7 @@
         <v>7.7906102550000007</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>18</v>
       </c>
@@ -49521,7 +51251,7 @@
         <v>0.66627192000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -49622,7 +51352,7 @@
         <v>3.6993475000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -49723,7 +51453,7 @@
         <v>7.2443609224999994</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -49824,7 +51554,7 @@
         <v>24.235824582500001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>30</v>
       </c>
@@ -49925,7 +51655,7 @@
         <v>10.881483317500001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>35</v>
       </c>
@@ -50026,7 +51756,7 @@
         <v>18.495646319999999</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>36</v>
       </c>
@@ -50127,7 +51857,7 @@
         <v>-0.151</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -50228,7 +51958,7 @@
         <v>16.056628227499999</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>55</v>
       </c>
@@ -50329,7 +52059,7 @@
         <v>3.93318558</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>68</v>
       </c>
@@ -50430,7 +52160,7 @@
         <v>5.6940498399999999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>72</v>
       </c>
@@ -50531,7 +52261,7 @@
         <v>21.865308269999996</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>103</v>
       </c>
@@ -50632,7 +52362,7 @@
         <v>3.0098710050000079</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -50658,7 +52388,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -50684,7 +52414,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -50710,7 +52440,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -50736,7 +52466,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -50762,7 +52492,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -50788,7 +52518,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -50814,7 +52544,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
